--- a/data/sources/TSDK_KEN.xlsx
+++ b/data/sources/TSDK_KEN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/cenv0795_ox_ac_uk/Documents/Code/CCG/TEAM-Kenya/data/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cenv0795\OneDrive - Nexus365\Code\CCG\TEAM-Kenya\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3ABC3C-7720-4C99-A4BB-D4CAE4537E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0D3ABC3C-7720-4C99-A4BB-D4CAE4537E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1808802C-DBB3-4ED5-BFB3-CB62C890EEB3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{DFB02F8F-0940-2549-827C-C38185A94963}"/>
   </bookViews>
@@ -1699,8 +1699,7 @@
   <autoFilter ref="A1:AT64" xr:uid="{DB5D19D0-70DD-4415-9338-CCA7B51F99EB}">
     <filterColumn colId="5">
       <filters>
-        <filter val="Freight activity"/>
-        <filter val="Passenger activity"/>
+        <filter val="Vehicle stock"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2399,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7D71A-80FD-5A4C-91CD-7A9563B27971}">
   <dimension ref="A1:AT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4235,7 +4234,7 @@
         <v>7.5173553870388599</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" hidden="1">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>8629</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" hidden="1">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>52485.074339999999</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" hidden="1">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" hidden="1">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" hidden="1">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>46.932679</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" hidden="1">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" hidden="1">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -4621,7 +4620,7 @@
         <v>109.24</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" hidden="1">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>109.24</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" hidden="1">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" hidden="1">
       <c r="A23" t="s">
         <v>188</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>11658.409799999999</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" hidden="1">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>8855.1901309999994</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" hidden="1">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" hidden="1">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" hidden="1">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" hidden="1">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>5506.2282290000003</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" hidden="1">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" hidden="1">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" hidden="1">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" hidden="1">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>294.96525800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" hidden="1">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>280.73599999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:45" hidden="1">
+    <row r="34" spans="1:45">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>1620897</v>
       </c>
     </row>
-    <row r="35" spans="1:45" hidden="1">
+    <row r="35" spans="1:45">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>2726818</v>
       </c>
     </row>
-    <row r="36" spans="1:45" hidden="1">
+    <row r="36" spans="1:45">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>3801897</v>
       </c>
     </row>
-    <row r="37" spans="1:45" hidden="1">
+    <row r="37" spans="1:45">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>762807</v>
       </c>
     </row>
-    <row r="38" spans="1:45" hidden="1">
+    <row r="38" spans="1:45">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>1520187</v>
       </c>
     </row>
-    <row r="39" spans="1:45" hidden="1">
+    <row r="39" spans="1:45">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>1967250</v>
       </c>
     </row>
-    <row r="40" spans="1:45" hidden="1">
+    <row r="40" spans="1:45">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>626896</v>
       </c>
     </row>
-    <row r="41" spans="1:45" hidden="1">
+    <row r="41" spans="1:45">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>880599</v>
       </c>
     </row>
-    <row r="42" spans="1:45" hidden="1">
+    <row r="42" spans="1:45">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>1196054</v>
       </c>
     </row>
-    <row r="43" spans="1:45" hidden="1">
+    <row r="43" spans="1:45">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>75202</v>
       </c>
     </row>
-    <row r="44" spans="1:45" hidden="1">
+    <row r="44" spans="1:45">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>68739</v>
       </c>
     </row>
-    <row r="45" spans="1:45" hidden="1">
+    <row r="45" spans="1:45">
       <c r="A45" t="s">
         <v>188</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>114311</v>
       </c>
     </row>
-    <row r="46" spans="1:45" hidden="1">
+    <row r="46" spans="1:45">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>142922</v>
       </c>
     </row>
-    <row r="47" spans="1:45" hidden="1">
+    <row r="47" spans="1:45">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>169292</v>
       </c>
     </row>
-    <row r="48" spans="1:45" hidden="1">
+    <row r="48" spans="1:45">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>345646</v>
       </c>
     </row>
-    <row r="49" spans="1:45" hidden="1">
+    <row r="49" spans="1:45">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>13070</v>
       </c>
     </row>
-    <row r="50" spans="1:45" hidden="1">
+    <row r="50" spans="1:45">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>46641</v>
       </c>
     </row>
-    <row r="51" spans="1:45" hidden="1">
+    <row r="51" spans="1:45">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>178636</v>
       </c>
     </row>
-    <row r="52" spans="1:45" hidden="1">
+    <row r="52" spans="1:45">
       <c r="A52" t="s">
         <v>188</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>10886</v>
       </c>
     </row>
-    <row r="53" spans="1:45" hidden="1">
+    <row r="53" spans="1:45">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -7804,23 +7803,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4F4B9C8D4E5FB419F9CC5D98855FC2A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92db766cf820f0a3f33beeff1e47ce9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5845f703-aefd-4152-9ce7-4004e1ab5465" xmlns:ns4="ec776a2e-aa90-42fe-8c76-cfe3819c2a73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49aecd7956b7dd0d9a021778df15d4b1" ns3:_="" ns4:_="">
     <xsd:import namespace="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
@@ -8055,32 +8037,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76771F11-0FE4-4692-B27A-42A145CD4FD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59380A07-0762-4B45-B681-E76FBA444A27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5845f703-aefd-4152-9ce7-4004e1ab5465" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7000163-365A-4719-899E-8E595634D783}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8097,4 +8071,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59380A07-0762-4B45-B681-E76FBA444A27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76771F11-0FE4-4692-B27A-42A145CD4FD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5845f703-aefd-4152-9ce7-4004e1ab5465"/>
+    <ds:schemaRef ds:uri="ec776a2e-aa90-42fe-8c76-cfe3819c2a73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>